--- a/downloads/download_sample_file.xlsx
+++ b/downloads/download_sample_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a4b8616e385e7b5/Desktop/StayOnTrack/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8BFE3529-6998-4A0B-850A-0E211FD3632D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27BCF4FB-96BD-4D3A-8DFB-C71BEACEF6B4}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{8BFE3529-6998-4A0B-850A-0E211FD3632D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26AA93B9-2F43-4D27-BCAB-27556D943A3F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,6 +758,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1049,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="V103" sqref="V103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
